--- a/script_grenouilles/description_caracteres.xlsx
+++ b/script_grenouilles/description_caracteres.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t xml:space="preserve">Caractère</t>
   </si>
@@ -38,6 +38,12 @@
   </si>
   <si>
     <t xml:space="preserve">Brun claire, roux ou rouille, vert foncé ou bien noir.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[couleur]pelote</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abscente, grise, noire ou brune</t>
   </si>
   <si>
     <t xml:space="preserve">[forme]pupille-lisere</t>
@@ -88,6 +94,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -169,17 +176,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.8520408163265"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.3214285714286"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.5969387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.8520408163265"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -252,6 +259,14 @@
       </c>
       <c r="B9" s="0" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
